--- a/QandA DCC ELAN.xlsx
+++ b/QandA DCC ELAN.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27321"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{429768AF-BA25-4F04-A6F6-FB48A097FEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{153D96DE-31FA-4330-AD97-4FFFCF4833B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Q&amp;A DCC ELAN </t>
   </si>
@@ -90,7 +90,10 @@
     <t>For the ELAN patient (PAT) file, does every patient have one row? Multiple rows per patient seem to appear when patients switch GPs. 0.13% of the duplicate RINPERSOON rows have different birthdates, how is this possible?</t>
   </si>
   <si>
-    <t>Als patiënten eerst bij een niet-ELAN praktijk zitten en dan bij een ELAN praktijk komen, wordt de betreffende medische geschiedenis (op een correcte manier) meegenomen naar ELAN? Hoeveel missende data zijn er op dit gebied?</t>
+    <t>If patients first attend a non-ELAN practice and then transfer to an ELAN practice, is the relevant medical history (correctly) transferred to ELAN? How much missing data is there in this aspect?</t>
+  </si>
+  <si>
+    <t>Is it possible to add general statistics on the unlinkable population per data upload, to aid in assessing differences within confounding variables and groups?</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
   <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -733,8 +736,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:1" ht="24">
+      <c r="A20" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="12"/>

--- a/QandA DCC ELAN.xlsx
+++ b/QandA DCC ELAN.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{153D96DE-31FA-4330-AD97-4FFFCF4833B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\org\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BECC68-3DF4-4616-AD77-1D7FCC269B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Q&amp;A DCC ELAN </t>
   </si>
@@ -94,13 +99,16 @@
   </si>
   <si>
     <t>Is it possible to add general statistics on the unlinkable population per data upload, to aid in assessing differences within confounding variables and groups?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much do the medication entries in ELAN GP differ from medication entries in Vektis? In theory they should be identical, but a lot of medication entries are missing in ELAN GP, for a large part this happens when the medication is prescribed by a specialist and this is not communicated to the GP His. I'm mainly interested in the medications commonly used for rheumatic diseases and prescribed by the specialists, to be precise the following level-4 ATC codes: A07EA, A07EC, H02AB, L01AA, L01BA, L01XC, L04AA, L04AB, L04AC, L04AD, L04AX, M01CB, M01CC, P01BA </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,7 +310,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -616,28 +624,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="125.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="125.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.75" customHeight="1">
+    <row r="1" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="24" customHeight="1">
+    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -645,295 +653,297 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" ht="29.25" customHeight="1">
+    <row r="8" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" ht="14.25" customHeight="1">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" ht="11.25" customHeight="1">
+    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" ht="14.25" customHeight="1">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="13.5" customHeight="1">
+    <row r="12" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" ht="12.75" customHeight="1">
+    <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="12.75" customHeight="1">
+    <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="24">
+    <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="24">
+    <row r="17" spans="1:1" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="24">
+    <row r="18" spans="1:1" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="24">
+    <row r="19" spans="1:1" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="24">
+    <row r="20" spans="1:1" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="12"/>
-    </row>
-    <row r="22" spans="1:1">
+    <row r="21" spans="1:1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="12"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="12"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="12"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="12"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="12"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="12"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="12"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="12"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="12"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="12"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="12"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="12"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="12"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="12"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="12"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="12"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="12"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="12"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="12"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="12"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="12"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="12"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="12"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="12"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="12"/>
     </row>
   </sheetData>
